--- a/data/hotels_by_city/Dallas/Dallas_shard_347.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_347.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="810">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>Ladycheree</t>
   </si>
   <si>
     <t>06/12/2018</t>
@@ -191,6 +194,9 @@
 undergoing major renovations. We would've seen past the renovations, but when we arrived (morning of Thursday, Nov.  2nd) we learned that the elevator was out of service. This was a major problem mainly because of the whole reason for our trip. I was in Dallas to walk in the Susan G. Komen 3-Day which is 60 miles. Knowing I had to walk 20 miles a day and then have to go up and down stairs every day made me pretty unhappy. The clerk was apologetic.  He said the part was ordered for the elevator and that the hope was it would be there by Friday and fixed AT WORST by Saturday. We left on Monday and it had still not been fixed.  We were not even offered to have our bags carried up to our rooms. Since we got to the hotel early, the only room available was on the 4th floor. The entire 1st floor was being renovated. I think the 2nd floor had only partial rooms that were t under renovations yet. I was on a team for the walk and several of my teammates...I rarely write bad reviews, but this is very important for anyone who stays in this hotel anytime soon. My husband and I chose this hotel because Holiday Inn is known for customer service, hospitality, and quality rooms. When we booked our rooms nothing was ever mentioned in the reservation about the hotel undergoing major renovations. We would've seen past the renovations, but when we arrived (morning of Thursday, Nov.  2nd) we learned that the elevator was out of service. This was a major problem mainly because of the whole reason for our trip. I was in Dallas to walk in the Susan G. Komen 3-Day which is 60 miles. Knowing I had to walk 20 miles a day and then have to go up and down stairs every day made me pretty unhappy. The clerk was apologetic.  He said the part was ordered for the elevator and that the hope was it would be there by Friday and fixed AT WORST by Saturday. We left on Monday and it had still not been fixed.  We were not even offered to have our bags carried up to our rooms. Since we got to the hotel early, the only room available was on the 4th floor. The entire 1st floor was being renovated. I think the 2nd floor had only partial rooms that were t under renovations yet. I was on a team for the walk and several of my teammates chose this hotel as well so that we could stay at the same place. When we walked in the hotel Friday night (after 20 miles of walking) one of my teammates asked the manager, Reed House, if the elevator was working. He replied, “No, ma’am.” She went on to say, “That is just unacceptable. We’ve been walking all day.” He replied, “Well, you can checkout right now.” Several others witnessed this conversation that we all found extremely rude. He did not offer us discounts or accommodate us in any way. On Sunday, a note was slipped under the door that the power to the hotel would be completely shut off for a few hours in the afternoon. Every time we turned around, it was something else. We chose to stay the rest of the time despite all the inconveniences because from what we understood, nothing would be refunded and we would be charged for all nights we stayed or didn’t stay. Adding to the problems, I noticed that in the workout room, the treadmill (which I knew I wouldn’t use, but it’s just one more thing) had an out of order sign on it and the back door of the hotel didn’t lock securely. Despite having a key card scanner outside, you didn’t need to use it because the door was unlocked day and night. Anyone could get in the hotel and go up the back stairs to the rooms. The room itself was ok. The furnishings are old and I’m assuming that’s because of the renovation, but I can’t be sure because the bathroom looked practically brand new. It had no tub, just a shower with a big glass door. It was really pretty, but unfortunately they put the sliding door to step in on the far side of the shower so you had to reach in and turn water on with it spraying all over you. We assumed they installed it this way because having put the door on the side with the controls wouldn’t have worked so close to the toilet. It was annoying to have to get sprayed with freezing cold water every time you turned the shower on. The bed was comfortable and tv was nice, but were the only two things in the room worth mentioning. The furniture was very dated and one of the handles on the dresser was dangling. The pictures on the site look nothing like the hotel right now. It is completely torn up and the pool is not open. They really should’ve shut the place down until the renovations were done. Mainly due to the lack of customer service, no warning of renovations, and no accommodation to the inconveniences at all, we will not be staying here again. More</t>
   </si>
   <si>
+    <t>LegitimateM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r538286760-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
   </si>
   <si>
     <t>This hotel is under renovation and there's no elevator and our room is on the third floor.It is tiring to go up and down the stairs but it is a good exercise for us.They have two guys to bring our luggages to our room.The shower faucet needs to be fixed but since they are remodelling everything,they didn't charge us so much.More</t>
+  </si>
+  <si>
+    <t>Carly F</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r536196738-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
@@ -258,6 +267,9 @@
 ROOMS: The rooms were clean. BUT there were some things that seemed overlooked. There was no toilet paper holder, so it just sat on the shelf under the sink. There are also no towel hooks in the bathroom for wet towels. There is one mirror in the whole room that is over the sink, with a built in florescent light around it. The problem with this is that for us short folks, it's hard to get close to the mirror to put on makeup, and if someone is in the bathroom...I write my review based on my experience. I would like to think it would be better had the property not been under construction, but since I don't know that, this is what I have to go on.It wasn't terrible, but it wasn't great either.The pool and courtyard area were closed due to that is where construction supplies were being stored. SECURITY: I never felt unsafe at this hotel. There are cameras all over the property, and the monitor for those cameras are visible to all who enter the lobby. There is lots of lighting in the parking lot and throughout the building.LOBBY: The lobby is partially blocked off due to construction, so it wasn't very inviting.ELEVATOR: The elevator definitely needs servicing. It bounces when you are going up; however, it's fairly smooth going down. It needs a facelift as paint/wallpaper is peeling off the inside.ROOMS: The rooms were clean. BUT there were some things that seemed overlooked. There was no toilet paper holder, so it just sat on the shelf under the sink. There are also no towel hooks in the bathroom for wet towels. There is one mirror in the whole room that is over the sink, with a built in florescent light around it. The problem with this is that for us short folks, it's hard to get close to the mirror to put on makeup, and if someone is in the bathroom you have no mirror.The bed was comfortable, and I loved how much room I had to spread out and work without having to work at the desk.STAIRS: I take stairs to compensate for the cinnamon rolls I ate at breakfast, but the stair landing areas are being used for storage of old/broken furniture. I did not enjoy the stair area because it was not clean or cluttered.More</t>
   </si>
   <si>
+    <t>Me M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r535702607-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -282,6 +294,9 @@
     <t>Checked in, vending machine broke, iron in room-broke,  signs say under construction but doesn’t appear to be, just run down. Placed a single female near exit door on first floor with windows that open!, unsafe. They should not be booing guests, not up the IHG standards. Room right next to back exit, door slamming all night. AC does not turn off automatically, up and down al night. Bed was so old it slanted downhill....interesting sleep for sure.More</t>
   </si>
   <si>
+    <t>blazer729</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r534606940-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -300,6 +315,9 @@
     <t>After an unintended 18 hour drive , being re-directed and back tracking , due to Dallas construction , etc I have never needed to find a place to stay so badly.  The main call line had not secured my reservation after all, at a high price , so the WONDERFUL front desk gentleman took care of me so so well.  Not only did he get me a nice room at a much cheaper price , he then proceeded to get me fruit and yogurt as I had not had anything since lunch.  It was now 10:30 pm.   This kept me from going out to find food.   He then helped me with directions out in the next morning.  No one has ever been kinder to me at a hotel.  The breakfast the next morning was hot, plentiful and delicious.  Rooms are spacious and very comfortable!    Also, the morning clerk was a great man too This is a great place More</t>
   </si>
   <si>
+    <t>davidpQ1066UC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r532731977-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -327,6 +345,9 @@
     <t>This place is ancient and dark.  Rooms are tiny and bare.  No lights on the outside at entrance or parking.  No comforter or spreads only sheets on beds.  AC units are weak.  Other guests look sketchy.  Price is too high for this dive!!!!More</t>
   </si>
   <si>
+    <t>Lori R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r517193006-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -354,6 +375,9 @@
     <t>We were surprised when we pulled in the parking lot and the hotel looked closed. We were hesitant to keep our reservation but thought it would be ok. The noise wasn't bad they did a great job of keeping the noise from the 4th floor. The room had a musty smell and a stain on the comforter on the bed. The emergency exit/stairs next to our room was out of order. The elevator didn't feel safe very shaky. Our air conditioner stopped working about 10 being that late we didn't bother to change rooms. I wish we had be aware of the situation at the hotel we would have elected to stay somewhere else.More</t>
   </si>
   <si>
+    <t>mimi3men</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r505628414-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -381,6 +405,9 @@
     <t>My room smelled like mildew. I was taking a shower and they turned the water off without notice to guest. I have video footage of the the faucets not running. My stay was not what I expected. I'm Never visiting that hotel ever again. I have waited almost two weeks for a returned phone call and no one has call since. Waste of money. More</t>
   </si>
   <si>
+    <t>Pixu17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r502901684-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -405,6 +432,9 @@
     <t>Visited twice as planned. Booked big room (2 bedrooms) : 236 and 206.  Rooms were clean and ok condition. In 206 had serious problem with wifi. It worked ok week earlier in 236. Breakfast was okish, It had bread, eggs, raisin bran, yogurt  etc. Once there was bacon too. No cold cuts at all. Berries were nice surprise. Have your breakfast before 8 am. If coming after, pretty much out of everything. You will get them but have to ask one by one.Gym was bad. Small with with one cross trainer and 2 running mills but air condition at all. With Texas heat 30 min training was maximum.Service was friendly but they simply have a little too less staff.Pool area was quite small but ok (4 feet/120 cm deep).Hmm..a bit negative flavor estimation but overall hotel is ok. Just some small things disturbing and pointed here. Btw, Addison area fireworks (3rd July) was great to watch from the pool.More</t>
   </si>
   <si>
+    <t>sorokinanatalia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r481224874-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -423,6 +453,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>jetreaux</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r437426630-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -450,6 +483,9 @@
     <t>Arrived at hotel at 1:50 in afternoon to an empty parking lot and was told no rooms were ready to come back in 30 to 40 minutes.  How unfortunate the front desk staff was so indifferent to the needs of their customers.  Was concerned after reading other reviews and though maybe the reviewers were having a bad day.  They were not. Seems like front desk lady knows more about the rewards program and Holiday Inn than anyone else on the planet.  King sized bed in room sags in the middle, furniture dated and worn.  The best thing that can be said about this hotel is the nice coconut smell in the updated hallways.......stay someplace else, not worth the hassle for the rewards.More</t>
   </si>
   <si>
+    <t>phnxmike</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r437258589-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -471,6 +507,9 @@
     <t>The Holiday Inn Express in Addison, TX is a "jewel!"  First, it is off the main streets so there is less traffic entering or leaving the property.  Secondly, it is a high quality facility.  The staff was friendly and eager to make you feel welcome.  My room was large and very nicely furnished, new carpets and very comfortable beds.  A microwave and mini-refrigerator were also nice to have.  The breakfast buffet offered a nice variety of hot or cold items.  And, on Saturday and Sunday the breakfast buffet its offered 7:00 AM until Noon.  The hotel is located near the Addison Airport and between two busy roads.  There was no outside noise that could be heard in the room.  There was a college sports team in the hotel, and I did not hear a single sound on any kind from within or from he outside.  There is plenty of parking and the parking lots have excellent lighting and are monitored from the reception desk.  There are over 30 restaurants within walking distance. I recommend this Holiday Inn Express without hesitation and with my highest recommendation!More</t>
   </si>
   <si>
+    <t>CharlieMickKeith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r432951268-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -498,6 +537,9 @@
     <t>Terrible experience.  Showed up at 9 pm with a confirmed reservation.  I was told the hotel was sold out and they did not know how I was able to get a reservation.  The front desk gave me a number to call to talk to a representative.  They told me the hotel should have already taken care of my problem by finding me another available hotel.  Wasted another 30 minutes on hold while the 800 number rep called the hotel trying to decide who owned the problem.More</t>
   </si>
   <si>
+    <t>zzzrn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r432815495-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -513,6 +555,9 @@
     <t>I spent a week here. The place is located within walking distance of everrything. The lady at the front desk was so energetic and enthusiastic about Addison! You could tell she took pride in her job. The rooms were super clean and comfortable. Very quite! Never once had a problem with noise. The breakfast was amazing! I will stay here again</t>
   </si>
   <si>
+    <t>Travelinghockey... D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r431806721-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -535,6 +580,9 @@
   </si>
   <si>
     <t>I always give my honest reviews, you can look back and see that I pretty much have positive experiences at hotels however that was not the case here at the Holiday Inn. From the photos on the website I had much higher expectations for this property. Upon arrival it was the lobby area was  impressive so I thought we did pretty good getting a cheaper room for the weekend.  We took the elevator up to our room and it literally bounced up and down the entire ride up to the 4th floor, scary scary!!  It smelled good in the hallway but I could detect that the good smell was  covered up ciggarette smoke. When we arrived in our "non-smoking" it was very apparent that someone had been smoking in the room, it reeked!!! We called the front desk to notify them of the issue and they kindly offered to change our room. We were on a time schedule to be somewhere so we did decline to move. The next issue was, we had left the air conditioner on all day and it was chilly in the room so my husband turned on the heater, it started smoking and actually set the smoke detector off in our room. The rooms are not as clean as they should be, there were brown stains on the walls in the room and the bathroom area, The carpet in the halls was stained and dirty...I always give my honest reviews, you can look back and see that I pretty much have positive experiences at hotels however that was not the case here at the Holiday Inn. From the photos on the website I had much higher expectations for this property. Upon arrival it was the lobby area was  impressive so I thought we did pretty good getting a cheaper room for the weekend.  We took the elevator up to our room and it literally bounced up and down the entire ride up to the 4th floor, scary scary!!  It smelled good in the hallway but I could detect that the good smell was  covered up ciggarette smoke. When we arrived in our "non-smoking" it was very apparent that someone had been smoking in the room, it reeked!!! We called the front desk to notify them of the issue and they kindly offered to change our room. We were on a time schedule to be somewhere so we did decline to move. The next issue was, we had left the air conditioner on all day and it was chilly in the room so my husband turned on the heater, it started smoking and actually set the smoke detector off in our room. The rooms are not as clean as they should be, there were brown stains on the walls in the room and the bathroom area, The carpet in the halls was stained and dirty looking, and with an unclean appearance. . As far as location convenience it was perfect!! But,  overall there were too many negatives and my family and I will stay elsewhere when we return to the area.More</t>
+  </si>
+  <si>
+    <t>JetPlt</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r431796862-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
@@ -556,6 +604,9 @@
 Lastly, the "breakfast".  Standard setup, BUT the "food lady" had such an attitude that 1/2 the hot food wasn't made available.  Here's the conversation:  Mame, the scrambled eggs are empty".  "I KNOW, I KNOW".  "Also, the turkey sausage"  "I KNOW, I KNOW".  "Also, the biscuits and gravy".  "I KNOW, I KNOW"....This place is disgusting.  Was a poor experience from the start.  From entering this location, to leaving, very poor.  When I read Jennifer_GT11's comments about poor customer service, I didn't believe it.  BELIEVE IT !!!! Front desk lady (no names here) couldn't care less if you stayed or left.  She never welcomed me and kept her head down and simply said "Last name".  I tried to loosen her up with polite conversation, but it's as if she has no personality at all.  How in the world did you get to the desk of an IHG property with a lack of empathy?  When I get to my room, I can barely see anything because the lighting is so poor.  Even after turning on all the lights, I still could barely see anything.  You can tell this property isn't a property built within the past 20 years.  Plaster patching, old decor and cheap furniture.  A pet peeve of mine are the TVs that you have to point the remote directly at the sensor for it to work.  Hello... we live in a world of RF and not IR.  Get with it.Lastly, the "breakfast".  Standard setup, BUT the "food lady" had such an attitude that 1/2 the hot food wasn't made available.  Here's the conversation:  Mame, the scrambled eggs are empty".  "I KNOW, I KNOW".  "Also, the turkey sausage"  "I KNOW, I KNOW".  "Also, the biscuits and gravy".  "I KNOW, I KNOW".  I sat there eating oatmeal to see how quickly she knew.  I waited 15 minutes and just got up and left.Great selection of local restaurants. Also, there's a great selection of OTHER hotels in the same price range.  I stayed here for the IHG points, but it isn't enough for me to return.I asked the receptionist why ppl stay at this property and she said it's because there are a dozen major training centers close by and not enough hotel rooms.  They don't have to provide adequate customer service because they don't have to.  Also, they make you check out at 11:30am (per the cheap piece of paper taped to the front lobby counter).  I asked for a late check out and she gave me 12pm.  My advise, don't stay here.  Not even for the points.  That is all...More</t>
   </si>
   <si>
+    <t>Jennifer_GT11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r430348457-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -580,6 +631,9 @@
     <t>Rude front desk person told us to leave after the hotel would not honor our reservation.   Very bad attitudes and service.    They made no effort to provide a shred of service.   We are a family of 4 and I suppose Holiday Inns does not cater to families anymore.More</t>
   </si>
   <si>
+    <t>TT1007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r424477108-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -604,6 +658,9 @@
     <t>We arrived early but they wouldn't let us check in early, claimed no rooms.  Hotel didn't look full. Decor was nice.  Rooms dated, pool was closed due to accident. Air conditioner was next to bed so we had to shut it off so person on that side didn't freeze. Could hear people outside smoking. No all day coffee like other locations, so will stay elsewhere next time.More</t>
   </si>
   <si>
+    <t>BVDPA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r419106397-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -631,6 +688,9 @@
     <t>It's been more than two years since I last visited Addison and stayed at this hotel.  The facility remains to be well maintained and very, very clean.  I was upgraded to a suite and had plenty of space. The bed was comfortable.  The air conditioning was not the usual window unit that most hotels use - it was central air like at home and it was quiet and did bother me while I was sleeping.  The staff members that I chatted with were very friendly and hospitable. There are plenty of good restaurants nearby - several within walking distance and many more within short drives.  Breakfast was fresh and tasty and the attendant replenished the items as needed and kept everything clean.  The "just baked" chocolate chip cookies that I enjoyed one evening were just that -- freshly baked and delicious.  I accessed and used the Internet one evening and did not experience any delays or lack of speed.More</t>
   </si>
   <si>
+    <t>EastTexasTraveler903</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r417257857-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -649,6 +709,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>David F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r412521817-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -676,6 +739,9 @@
     <t>The hotel is not bad and a good location for local restaurants etc but for business the internet sucks, I have stayed here a number of times and each time have complained about the internet access, it is glacially slow and disconnects frequently such that it is almost useless. This will be the last time I stay here. It is not the staffs fault and they are friendly and helpful but the management obviously does not care enough to fix the issue and replace their internet provider with a competent supplier.More</t>
   </si>
   <si>
+    <t>ylorosintx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r406861459-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -691,6 +757,9 @@
     <t>This little hotel is in the middle of Addison. The front desk lady was amazing. We came in late and she treated us like we were VIP's. She even had delivery menus for sushi that delivered til 3am. She was older but really nice &amp; there all the time. Got us to our meeting with good directions not on the highway so we mised the construction. Worth every penny. Good breakfast that's free. Great maids. Overall the best experience we've had in a while Thank you Janie and the Holiday Inn in Addison. We will be back!</t>
   </si>
   <si>
+    <t>Edward B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r403719688-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -706,6 +775,9 @@
     <t>Helpful, friendly staff. Large, well equipped rooms. Clean. Quiet. Good value. I thought this place lower end than what I discovered -- as I say, pleasant surprise. Location is within walking distance of more eating places than you can count! Breakfast is free, decent variety and pretty darn good.</t>
   </si>
   <si>
+    <t>hillcntrytraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r403043276-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -730,6 +802,9 @@
     <t>This hotel obviously used to be some other chain.  It is definitely not as updated and immaculate as more recent Holiday Inn Express hotels.  The scratched up light oak furniture and fake gold fixtures are the first tip off that this place has been around for a while.  We had a king suite and it was nothing special.  The fixtures were dated, furniture uncomfortable and the bed was very soft, leading to a poor night's sleep.  We requested a late check out when we arrived and the desk clerk assured us that would be fine and to just let them know when we came down for breakfast that morning.  I did so and was informed by a really snotty clerk that they don't give you late check out, she didn't know who told me that but she could hardly be bothered to get off her rear end to even come to the counter to talk to me.  Breakfast was just ok, the usual HI fare, but it was not replenished very quickly so stuff on the buffet got cold.  Fitness room is a total joke--just 4 pieces of equipment, but it didn't matter much since nobody else was ever using it.  Room rate was inexpensive, so that was the only really good thing about it.More</t>
   </si>
   <si>
+    <t>Larryfmscotland</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r402361751-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -743,6 +818,9 @@
   </si>
   <si>
     <t xml:space="preserve">Had a very nice short stay. Great staff. Upgraded to a suite. Breakfast was so so. Overall very good.  I enjoyed chatting to one of the check-in clerks about photography.  Jacuzzi had some blocked jets. </t>
+  </si>
+  <si>
+    <t>ColdwaterJoe</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r379072875-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
@@ -776,6 +854,9 @@
      The faucet leaked when turned on at the handle and there were a lot of cracks around the seals on the tum.  The WiFi code changed daily and we didn't know until we complained to the front desk.  I asked the night clerk if there were any Pharmacies in the area, CVS or Walgreen's and he stated, "I am sorry I don't live in the area.  I was thoroghly disappointed in the amenities, and service.   Pay a few dollars more and stay at the Hilton.  I originally booked a double queen but was given...I worked in the hospitality business for 16 years and the Holiday Inn Express in Addison TX was one of the most awful experiences I have had.  The front desk clerk was totally uninformed, didn't know the area, hotel specials, or where to get a good meal.       The morning breakfast was so bad I couldn't even eat plain English muffins.  The eggs had some type of liquid that oozed off of them and had to be strained.  There was no sugar at all for the coffee and the staff did not all speak English to let me know what they could do about it.  I asked the front desk clerk and her response was, "This is my first week and am sorry. "  I asked if there were any breakfast places near and got the same response with " I am not from the area."  added.       The faucet leaked when turned on at the handle and there were a lot of cracks around the seals on the tum.  The WiFi code changed daily and we didn't know until we complained to the front desk.  I asked the night clerk if there were any Pharmacies in the area, CVS or Walgreen's and he stated, "I am sorry I don't live in the area.  I was thoroghly disappointed in the amenities, and service.   Pay a few dollars more and stay at the Hilton.  I originally booked a double queen but was given a king with a pullout couch.  My 15 year old son said it was painful and slept on the floor.  The fd told me they didn't have anything else.  SadMore</t>
   </si>
   <si>
+    <t>Ynotforsure</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r370306064-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -801,6 +882,9 @@
   </si>
   <si>
     <t>I am a spire ambassador member ( highest level in ihg hotels) and yet they treated me like I was a nobody.. Starting with a cancelation of my reservation at their own will without telling me and leaving me out in the cold at 11 pm with no help of where to spend the night... Even hanging up on me as I was trying to figure out on the phone with them...twice!If you can go elsewhere!More</t>
+  </si>
+  <si>
+    <t>Owen M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r363051945-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
@@ -833,6 +917,9 @@
 Bottom line,...I'm a seasoned traveler and a Platinum club member with Intercontinental Hotel Group, the mother company of Holiday Inn Express's. The door slamming and banging is unreal, be it the guest or maid service, management has failed to instruct (people) or install devices to slow the doors down and stop the banging through out all hours of the night. Bring ear plugs if you choose this place.False advertising on the breakfast hours, breakfast area, website, and brochures indicate 7AM-10:30AM on weekends, I'm not sure of the start time, but they closed down the breakfast at 10AM and rudely stated there will be "no more" brought out, it's poorly policed and lots of guest smuggling hand fulls of items to their room AFTER eating. The breakfast area also has missing electrical outlet plates which is a violation of NFPA codes and likely city codes too, so a wonder toddler can easily electrocute themselves due to management incompetence.False advertising on the work out area. The television does not work. There is a very serious problem with the treadmill as the belt slips when you walk on it, this gives the feeling that you are walking on ice and you could very easily hurt yourself. Because of this, you are forced to get exercise outside on the streets in further dangerous location, there is a small park next door but it will take many laps to equal a mile.Bottom line, the management here is plainly incompetent and needs to be purged. I can see this in a lot of IHG hotels as they look for "cheaper" candidates for management, then in the end they end up getting what they ( and us customers) pay for, which is a sub-standard hotel. There are clearly better hotels in the area for the price.More</t>
   </si>
   <si>
+    <t>William K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r357554232-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -848,6 +935,9 @@
     <t>After several bad experiences with hotels near Richardson TX I found a winner with HI Express in Addison. It if farther away than I would like but the excellence makes it worth the drive.Check in was easy with lots of parking near the main door.  The check-in agent was good and appeared comfortable with his job. (Not so at other locations.)My room had an excellent layout for the business traveler.  Plenty of working power outlets, good internet service, could watch the HD TV from the desk.  (Not so at other locations.)The usual excellent breakfast from Holiday Inn Express.Ample parking near entry doors.</t>
   </si>
   <si>
+    <t>TravelKathy2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r354554970-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -863,6 +953,9 @@
     <t>It was convenient and clean.  The staff was very welcoming and pleasant.  We checked in late and left early.  It was very adequate for our quick stop.  It was a typical hotel room for the class of hotel and price.</t>
   </si>
   <si>
+    <t>mrcarats</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r349553200-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -884,6 +977,9 @@
     <t>was in Dallas for a couple of days with my wife visiting our son in high school.Chose this hotel because of the location,pool, free breakfast,exercise room.Was looking for that as opposed to a fancier hotel as this was not a romantic getaway. Front desk staff was friendly enough and helpful. lobby was decent as was the room.Was happy with the different breakfast options.Although breakfast was only served till 930,at 930 the woman who ran the dining area always asked us if we wanted anything else before putting the food away.Coffee was also available all day.really good location for shopping and dining.The both sides of the street lined with plenty of places to shop and eat.Also only about twenty minutes to downtown where some nice museums and the Dallas aquarium  are located.Would have rated the hotel as excellent,but had the following observations in the room. The bathroom fan did not work. The shower which seemed to have been recently painted,had been painted on top of the wallpaper as opposed to removing the wall paper first resulting in some of the wall beginning to peel.Also on the our first day of our stay housekeeping came in  and stripped the bedding. However by four in the afternoon they had not replaced it. I did however tell the front desk who had this taken care of.    All in all a decent stay and would consider staying there againMore</t>
   </si>
   <si>
+    <t>JerryNoh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r348086619-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -905,6 +1001,9 @@
     <t>I stayed for three nights. First, the location is very close from Addison Airport. There are many restaurants and coffee houses nearby the hotel. It's quite at night and is good to sleep. Second, room and bathroom are great. King size bed is comfortable. Sheets and pillow are clean and soft. Sofa is nice and TV channels are various. Bathroom is clean and there is a tub. Third, facilities are good. There are a swimming pool and a small gym in the hotel. You can use laundry machine with coins. Last, staff are very kind and informative. I arrived at the hotel before the check in time but Ms. Rosa provided me early check in service. She let me know how to get to downtown with public transport. I appreciate that. I decided to stay this hotel because it was close from my friend's house. No matter what the reason is for it is great choice!More</t>
   </si>
   <si>
+    <t>jmac1013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r346381118-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -920,6 +1019,9 @@
     <t>If you are looking for a place to stay in Addison that is off the main drag hustle and bustle of Belt Line Road or Midway Road this is the best place I have found.  It is one block off of Belt Line and gives you easy access to Midway and/or the Dallas North Tollway to get you off and running in the morning.  Friendly staff, continental breakfast in AM, comfortable beds, good parking, clean.......  Everything you want a a reasonable price.</t>
   </si>
   <si>
+    <t>stcroixscuba</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r346283934-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -932,6 +1034,9 @@
     <t>Another reviewer described this property as "just a bit off the main road" and that was spot on.  It's only a block from the main road which means it's quiet and easy to access but only a block away from LOTS of restaurants and shops.  The hotel was clean, convenient, the staff was very nice, and the price was right.  I'll be back.</t>
   </si>
   <si>
+    <t>JimmyC1904</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r341053002-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -950,6 +1055,9 @@
     <t>Really enjoyed my 3 nights stay here.  Very clean property and the front desk staff were very professional and friendly.  There was an incident where we were followed in by a person who was lurking around the back entrance door where you need the card key to enter.  He stopped at the elevators and we went to the front desk to report this and I was impressed that the cameras worked effectively and able to see the different floors and found the man and they kept an eye on things from there.  Made me feel very safe that their security inside and out worked.  The room was very clean and the bed was comfortable.  Overall a true 5 star 3 night stay!!More</t>
   </si>
   <si>
+    <t>John B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r333950491-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -968,6 +1076,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>asisoyyq</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r333097316-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -983,6 +1094,9 @@
     <t>I booked through Priceline, of course they only book you for a single bed. I wanted double beds so I had to pay $20.00 more to get double beds. Room was small and cozy. The beds were a little hard for my taste but the pillows were great. It included free breakfast and that was really good. Lots of things to chose from.</t>
   </si>
   <si>
+    <t>Mike B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r332708789-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1040,6 +1154,9 @@
     <t xml:space="preserve">This is a nice hotel. It is clean, comfortable and in a good location. Unfortunately, the free wifi the hotel says is available is terrible. It is of a quality I would expect at a low end motel. If you truly need to do any type of work requiring wifi do not select this hotel. Holiday Inn can dobetter. Don't boast free wifi if not willing to provide a system capable of providing a strong signal. </t>
   </si>
   <si>
+    <t>Greg A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r321857643-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1056,6 +1173,9 @@
   </si>
   <si>
     <t>November 2014</t>
+  </si>
+  <si>
+    <t>rriedle</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r319533243-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
@@ -1087,6 +1207,9 @@
 Worst of all was the "high speed" internet. In one week, there was never a "high speed" experienced. Every day, internet pages would take from 15-20 seconds to load, or several minutes to load, or would not load at all, with a message that there was no internet connection despite my seeing the fully-barred wi-fi symbol on my device. My iPad worked as described, and my Mac laptop was much worse. Daily calls to tech support, during which they either rebooted their system, or they boosted the signal, resulted in temporary improvement at best. I was told that it is a shared system, so more users result in slower access speeds. Yet I experienced  the same issues whether 3 a.m. (Yes, I am an early riser!), 5 a.m., 10 a.m., 1 p.m., 4 p.m., and so on - so I doubt the rot issue was the number of users accessing simultaneously with me....The room was average, and what one would expect in this price range in this day. While a hot breakfast is served each day, it was not good. A common item, the scrambled eggs, were poor in texture and even worse in taste - no way they were real eggs. The warmed cinnamon rolls were indeed warm, but oftentimes firm and dry - one day out of my seven was okay, a step below other hotels with the same breakfast item. The pancake maker was oftentimes jammed.Worst of all was the "high speed" internet. In one week, there was never a "high speed" experienced. Every day, internet pages would take from 15-20 seconds to load, or several minutes to load, or would not load at all, with a message that there was no internet connection despite my seeing the fully-barred wi-fi symbol on my device. My iPad worked as described, and my Mac laptop was much worse. Daily calls to tech support, during which they either rebooted their system, or they boosted the signal, resulted in temporary improvement at best. I was told that it is a shared system, so more users result in slower access speeds. Yet I experienced  the same issues whether 3 a.m. (Yes, I am an early riser!), 5 a.m., 10 a.m., 1 p.m., 4 p.m., and so on - so I doubt the rot issue was the number of users accessing simultaneously with me. When I went to the lobby so the housekeeper could clean my room, other customers were trying to access the Internet via wi-fi there, and I overheard their phone conversation about being unable to connect while in the lobby - so I know it was not just me and my devices having problems.  And it would not matter much whether I used the serve for my floor or the one below it.  Again, I am not referring to watching videos, down- or up-loading large photo files, etc.; rather this happened with simply trying to access my homepage on yahoo.com!More</t>
   </si>
   <si>
+    <t>GerardoFoodie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r318921729-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1102,6 +1225,9 @@
     <t xml:space="preserve">A very good hotel for a few nights, nothing fancy yet very well maintained. Staff is friendly and helpful, rooms up to par with Holiday Inn Express standards. Location is good, easy to get in and out, basic ammenities are included. Overall, a good alternative close to Galleria </t>
   </si>
   <si>
+    <t>trvlintime</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r315081504-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1120,6 +1246,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Billy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r299513126-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1136,6 +1265,9 @@
   </si>
   <si>
     <t>August 2015</t>
+  </si>
+  <si>
+    <t>SCSIwuzy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r299335857-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
@@ -1158,6 +1290,9 @@
 My room was a large suite. The front part of the suite was so large, it looked like it could have used more furniture, like a reading chair. There was a desk with a lamp and office chair in the front room. What I found interesting was that there was no coffee table in front of sofa sleeper; maybe this was so the sleeper could be pulled out without having to move furniture. Since I checked in late at night, the front room was fairly dim, even with all of the lights turned on. The bedroom area was well lit. In the daytime, there is plenty of daylight from the windows in the front and bedroom areas. The placement of the lighting in cooking area was...Stayed the Holiday Inn Express in Addison on business. The property is located just off Belt Line Rd, which is a main road through Addison. The hotel is clean and neat, and check-in was quick and easy. The lady at front desk was very friendly and helpful. The lobby has a seating area to the left of the entrance and there is a large room with window pane glass walls and plenty of tables where breakfast is served. At the time of my stay, Holiday Inn Express was offering late-night pancakes to promote their new one-minute pancake machine. They were pretty yummy and a nice treat after a long afternoon of flights and driving.My room was a large suite. The front part of the suite was so large, it looked like it could have used more furniture, like a reading chair. There was a desk with a lamp and office chair in the front room. What I found interesting was that there was no coffee table in front of sofa sleeper; maybe this was so the sleeper could be pulled out without having to move furniture. Since I checked in late at night, the front room was fairly dim, even with all of the lights turned on. The bedroom area was well lit. In the daytime, there is plenty of daylight from the windows in the front and bedroom areas. The placement of the lighting in cooking area was curious; the recessed ceiling light was mostly blocked by cupboard placement, casting a shadow over the refrigerator, microwave, sink and counter area.The bedroom had a nice comfortable bed with 4 long pillows, each spanning half the width of the king size bed. Two of the pillows were soft, two were firm; stitching on the pillow cases indicated the hardness of the pillows. One thing about the bedroom closet, it is located behind the bedroom door which means you must close the bedroom door to gain access to the closet. The bathroom was good-sized and well appointed. There was a shower/tub with a good shower head and plenty of towels.The air conditioners in the front room and bedroom worked well. They were much needed in the 100+ degree weather during the time of my stay. The ironing board could have used a new cover; the cover on the board I used was pretty loose and wrinkled. I had to iron the wrinkles out of the ironing board cover before putting my shirts down to iron them. There were two flat screen TVs, one in the front room and one in the bedroom. The free wireless internet worked well and download speed was very good.The Holiday Inn Express in Addison was a good place for me to base my travels in the Metroplex, and it's very close to many fine restaurants on Belt Line Rd and not far from the Galleria Shopping Mall. It was clean, affordable, and in a great location.More</t>
   </si>
   <si>
+    <t>Basil N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r298131438-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1185,6 +1320,9 @@
     <t xml:space="preserve">We stayed here just one night and had a very pleasant stay. The room was nice and the breakfast which was included was very good. The hotel also has a small gym and outdoor pool, both of which looked good but we did not avail of them. The hotel also offers a laundry which we found useful given we are on a road trip. The hotel is in the area of Addison which has lots of places for food and a cinema. </t>
   </si>
   <si>
+    <t>Jimmie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r296147682-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1212,6 +1350,9 @@
     <t>Booked the executive king room.  Assuming it was as roomy as it was depicted in their pictures. It was conveniently located in the area of which I had my business meetings. Well needless to say the Friday I arrived, I checked in got to my room and it was small, run down and just smelled like smoke. The king size bed looked more like a queen size. I couldn't believe that it was an executive room. I quickly booked another room 4 miles down at the Crowne Plaza hotel. I went right back down, checked out. The girls at the front couldn't even begin to help me with my requests, and questions. As they were not management. Even though I was a Spire Elite member of their hotel brand IHG Hotels. They acted like I was just another traveler, rather then a loyal customer. Never again will I stay there. Heck I didn't even stay, I just checked in and checked right back out.More</t>
   </si>
   <si>
+    <t>regiontravelreturns</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r295151912-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1225,6 +1366,9 @@
   </si>
   <si>
     <t>Convenient Addison location close to other conference hotels (like Dallas Intercontinental) but less expensive.  Features included breakfast with hot items available self-serve (like bacon); attractive-if-small outdoor pool; friendly front desk staff (although limited in overall knowledge of the area).  Walkable to multiple restaurants, including the Londoner Pub.  Clean if austere rooms.</t>
+  </si>
+  <si>
+    <t>M0mmyNeedsaVacati0n</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r220441385-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
@@ -1255,6 +1399,9 @@
 All-in-all, I would say the hotel is fine if you pay regular price, but great if you pay the $49...My family and I stayed here for one night on a quick trip to Dallas to meet up with some family.  I'd called to request a top floor room not overlooking the pool...we received a not top floor room that was overlooking the pool with no apologies, so we didn't start off on a great note. I agree with other reviewers that the staff could be a little more helpful and less grumpy.  The room itself was clean and fairly nice.  The beds were comfortable.  Despite not being on the top floor and overlooking the pool, our room was completely quiet - I have young kids that need to sleep, so this is huge for us.My kids and I logged tons of time at the pool in the 24 hours we were there and were by and large the only ones there.  It was clean and perfectly nice -- they loved it.Breakfast was OK -- there were some (powdered...) egg options, sausage, bacon, etc.  The pancake machine was fascinating, for both me and the kids.The location of the hotel was safe and fine, but not really close to any attractions you'd be going to in Dallas, if that's important to you.  There's a new Chuy's in the same parking lot, so that's a great, convenient dinner option.All-in-all, I would say the hotel is fine if you pay regular price, but great if you pay the $49 Hotwire rate we had.  More</t>
   </si>
   <si>
+    <t>lolomama</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r218751288-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1282,6 +1429,9 @@
     <t>Good location with what looked like lots of shopping and restaurants nearby.I here stayed here for one night on New Years Day after moving from another hotel in the Dallas area. Clean rooms. A bit old, with signs of wear and tear, but clean. Front desk staff was polite, but not exactly friendly - ok. Nothing spectacular. The usual HIExpress breakfast. Hot and tasty. Breakfast area was clean.More</t>
   </si>
   <si>
+    <t>TravelingSimpsons</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r211909355-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1300,6 +1450,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>MNBaker706</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r210308934-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1342,6 +1495,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Rhonda B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r203399911-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1369,6 +1525,9 @@
     <t>We stayed here for 2 nights while our girls basketball team played in Frisco, TX. The room was  nice and the parents, coaches and players did not have any major issues with the rooms.The rooms were clean and had enough towels for all the girls. We did have an issue with the front desk lady (older blond long hair). This lady acted like an FBI agent or a rude police office.  She was a trip. I walked in the lobby to bring my child some food and she said "where are you going" . WOW!More</t>
   </si>
   <si>
+    <t>George B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r200017508-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1396,6 +1555,9 @@
     <t>A very positive experience. Clean comfortable room, very impressed with the woodwork in the building, secure area, good restaurants nearby. Very friendly and professional staff. Breakfast was respectable :)  recommended!More</t>
   </si>
   <si>
+    <t>off2h2oski</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r199797201-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1414,6 +1576,9 @@
     <t>I was impressed with this Holiday Inn Express.  Staff was very professional and room was very nice.  Location is convenient and secure, and the free breakfast was respectable.  Only drawbacks were that it was a little noisy and the internet was a little slow.More</t>
   </si>
   <si>
+    <t>Catman3404</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r192524262-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1441,6 +1606,9 @@
     <t>We stayed in one of the king suites which had a kitchen area and dining table.  Ordered room service and they made a nice production of it.  The room itself was a bit dank and needed updating.  Bed was comfortable enough but not updated.More</t>
   </si>
   <si>
+    <t>Jonesgo51</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r189922460-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1468,6 +1636,9 @@
     <t>Not a racist but never been to a hotel where you cant understand anyone! Check in took forever and couldnt understand a word this woman said. Still had the same problem with 3 other employees. Breakfast was a nightmare with so many employees getting food we waited over 15 minutes to get to the food counter and then nothing left. Housekeepers very loud in hallways and rooms early while we were sleeping. Turned on tv in next room so loud and then yelled at each other. Ran when we tried to ask themt to be quiet. Person at the desk was no help and said they were doing their job. The lady at checkout was very short withme and said also they were doing their job. Tried to talk to manager and was not in. Attempted to call corporate and was told I couldnt because I wasnt a member??? Over all could have been a nice stay but employees are all foreign and not able to communicate with anyone. Frustrating but seems to be the way things are in Texas.More</t>
   </si>
   <si>
+    <t>slhguys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r186663155-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1492,6 +1663,9 @@
     <t>I was not impressed at all by the lady at check-in; very curt and not a single smile!  After that the room was very old fashioned and in need of an upgrade, horrible coffee with paper cups (c;mon, a bit of china please!) and a desk chair that kept dropping down to its lowest position randomly!Not a bad location for restaurants and bars but I would not stay again to be honest.More</t>
   </si>
   <si>
+    <t>TXVgsLvr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r180229341-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1519,6 +1693,9 @@
     <t>We only stayed one night, thank goodness. Upon arriving to the room around 10pm we flipped the switch only to have the lights blink and then not come on. The lamps worked by manually pushing the switches on them, so we just dealt with it. When we opened the sofa bed we found a pair of socks from the previous guests. Gave the impression the room wasn't cleaned very well. The bed was the absolute worst bed I have ever slept in. ROCK HARD!! Breakfast was very cold biscuits and gravy. Things looked up when they put out fresh scrambled eggs that were steaming, however they were so runny we couldn't eat them. We resorted to yogurt. The pancake machine was inoperable at the time.We stay in hotels frequently, and this is not one that we will try to return to.More</t>
   </si>
   <si>
+    <t>outnabout4ever</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r167908832-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1543,6 +1720,9 @@
     <t>This was one of the best HIE we haveStayed at.  We arrived after a 15 hour drive.  Janine was absolutely the nicest feont desk clerk as she greeted us w cold bottled water and upgraded our room due to my ihg rewards membership.  Breakfast was nice. Hotel clean and in a great location.  Would recommend this hotel.More</t>
   </si>
   <si>
+    <t>drdesign</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r162088213-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1568,6 +1748,9 @@
   </si>
   <si>
     <t>After a weary road trip from California, we found this as a nice lace to rest.  It was clean and comfortable.  The location was good...walking distance to a couple of nice restaurants.Breakfast was basic but of good quality.  Having a laundry and small gym on the premises was also helpful.More</t>
+  </si>
+  <si>
+    <t>pcsanity</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r159992178-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
@@ -1602,6 +1785,9 @@
 My room was a...I stay in Addison from time to time during business trips to the area. I tend to stay at the Hilton properties in the area, but given the fact that I was trying to earn some Priority Club bonus points (they are my second loyalty target), I decided to choose this location. I don’t think I will bother with this location ever again. The other options in the area are a much better. I would give this location a 3 bubble rating but the towel and pillow issues bump it down. The hotel is very close to many dining options and I like the fact that it is within two miles of a local location for the gym I use at home. Make sure and hit Snuffers if you want awesome cheese fries! This hotel on a back street off the main drag, so I did not have any issues with noise. Parking is free and I felt safe walking around. They have a sign up in some of the parking spots that warn of a flood zone – how about fixing the drainage issue? On first entering the lobby, I thought the breakfast room would be too small, but alas there were always tables in the morning. Even for my late arrival the hotel had cookies available. Check in was quick and easy, No recognition of my Priority Club Platinum Status but no worries there. My room was a nice enough King room with microwave and fridge and wetbar. The room also had small couch. The receptionist let me know that I was the first person to sleep in the new bed in this room! I thought cool, it should be a comfy night! They have nice HDTV’s though I did not check out the channels. Well, they must have bought the cheapest mattresses available. So hard, you could feel the support springs, and just plain uncomfortable. That is not something I frequently say….and I stay in a lot of hotels. Also the pillows obviously were not replaced as they were lumpy and flat. No discernable difference between the soft and firm pillows. The bed alone is enough to make me hesitate on staying at this location. Since we had two people in the room, and wanted to go to a local gym first thing in the morning I went down and asked for an extra towel, so that we could have two towels per person. The way the night clerk treated me you would have thought I was trying to pull off the great towel caper of 2013! In all the years I have been traveling and hundreds of hotels I have stayed in this was a first. Come on is it that unreasonable to ask for two towels per person so that we can dry off from the pool at the gym and then use a fresh towel to shower? “Why do you need another towel” / “How many people are in the room” / “What room number” / “What time did you check in”  At which point I promptly asked if there is a problem with getting another towel???? I was told management wants to make sure extra people are not staying in the room for free. Well, two towels per person is not odd, come on! I would not have thought it odd to ask for a room number, I get that, but the other questions unacceptable. I also asked for some shampoo since the housekeepers did not put any in our room. I was given conditioner and mouthwash. Back down I go to correct their mistake, politely said they gave us conditioner and was told “No its shampoo” -  Come on, read the bottle! (It was not combination shampoo conditioner – the clerk corrected the issue) The other little issues I am about to bring up would probably not have even bothered me, had it not been for the tone set by “towel enforcer”. Bedside table lamps (both of them) were not plugged in neither was the bedside phone. Curtains do not go to the floor, thus do not block out any morning light, no sleeping in – wake up! No shampoo in room. Housekeepers were very noisy on the floors, playing music in rooms as they cleaned them. Not conducive to sleeping in. If they want music use headphones. To the hotels credit, they still deliver USA Today directly to the room. Nice touch. I don’t usually read newspapers at home but enjoy having that paper available at the hotel in the morning without having to go downstairs. My bill was under the door in the morning which is always appreciated. The climate control seemed to work well, a tad noisy but not bad. You are able to leave the AC blower on for white noise. The breakfast was typical Holiday Inn Express – instant make your own pancakes, hot premade cheese omelets, biscuits, gravy, sausage links, muffins, cinnamon rolls, breads, cereals, juice, milk. A nice touch was the premade sausage egg and cheese sandwiches. The breakfast room though small seemed to always have space available and the food appeared to be well stocked. Somehow though the breakfast was lacking compared to other Holiday Inn Expresses, something just seemed off. Maybe I am just used to the Hampton Breakfasts now. Anyways, it was all edible and I have no complaints on the food. They also had grab and go bags which is a nice touch. There is a guest self-serve laundry available. They have small sized business center downstairs. High Speed Internet connection was nice. The inside of the hotel was dated (seems to have been a Country Inn and Suites in a past lice) but clean and nice looking with a nice enough lobby. They had a small (even for a limited service brand) but clean exercise room as well as a rather nice outdoor pool. I can’t say I will stay here in the future unless I REALLY need a stay at a IHG / Priority Club property and find a dirt cheap price. I had a reservation for this location for three nights later, I am changing that to another property.More</t>
   </si>
   <si>
+    <t>GTWC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r159263933-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1626,6 +1812,9 @@
     <t>I paid cash for my two night stay, she ask for a credit card for incidentals, $20 for it, but she ran it for the two night stay instead. Said she made a mistake and would correct the problem, but still 5 days later its still there. I just called the hotel to ask about it and she was very unpleasant and uncaring, she was hard to talk with.  Felt as if she thought she was right and i was wasting her time. I did love my room and the location, but not sure if it was worth it, to be talk down to. More</t>
   </si>
   <si>
+    <t>Blueteej1997</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r158795791-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1644,6 +1833,9 @@
     <t>Felt clean. Very nice lobby. A lot of restaurants within walking distance. Went for a run in the neighborhood to the west - felt very safe. Standard food for breakfast but not a lot of fruit.  Good place. I'd stay here again More</t>
   </si>
   <si>
+    <t>ddc4ua</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r158295687-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1668,6 +1860,9 @@
     <t>Started off in a room where some other guest had been in and left, still had a bag in it. The staff responded quickly and moved us to another room. Everything was great after that. Location was close to a lot of things, although they are doing construction on the interstate which caused some slight delays. Rooms were very nice. More</t>
   </si>
   <si>
+    <t>sasnak_zo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r156997283-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1689,6 +1884,9 @@
     <t>Booked 2 nights through Hotwire - got a great price.  Great check-in and check out experience.  Front Desk very friendly and professional.  Provided direction to local attraction and advice on where to park.  Breakfast was good, filled you up to get you going for the day.  rooms were quiet, modern, comfortable and clean.  Had no problems except the hallway light didn't work, but it really wasn't needed.  Reported it upon checkout.  Everything else that  I used (TV, showers), worked great.More</t>
   </si>
   <si>
+    <t>austin_techie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r150572829-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1710,6 +1908,9 @@
     <t>We booked 2 nights for a quick Dallas getaway and used Hotwire. We were a wee bit skeptical, but we had a wonderful stay. We were in the area mainly to vist museums and for shopping. This hotel provided a nice base for our family of 3. I would gladly stay in this hotel again.More</t>
   </si>
   <si>
+    <t>L M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r150481676-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1737,6 +1938,9 @@
     <t>Hotel dated but the management provided good services with free snacks and drinks In breakfast area each evening Monday through Thursday which I was not told at check in. The problem I had was with an unpleasant and uncaring lady that checked me in. She put me in a handicap room when I realized it and asked to moved, she would do nothing about nor didShe care. More</t>
   </si>
   <si>
+    <t>Jerrzbear</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r148114596-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1761,6 +1965,9 @@
     <t>The title reflects the two major problems I encountered at this hotel recently. In terms of aesthetics and comfort, it doesn't warrant the 3.5 * that I saw which motivated me to stay here during a visit to DFW. There are two phones in the room and neither worked - therefore we can't contact the front desk. Then when I wanted to take a shower I learned that there was nothing but a tepid temperature for the maximum setting for hot. The carpets and caulking in the room were in need of significant overhaul. The walls are very thin. The hallway carpets also seemed out of date. Internet signal on the main floor is very very weak.The good parts: Internet signal is very good in the room. Nice LED TV. The continental breakfast was okMore</t>
   </si>
   <si>
+    <t>IverJohnson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r146904583-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1785,6 +1992,9 @@
     <t>The price for our stay was very reasonable. But the stay wasn't quite wonderful or outstanding. The air conditioning was a bit noisy and the breakfast was just barely average. We had stayed at a competing hotel just down the street, so we liked this area of town.. So we were a pit disappointed with out stay. Not that we wouldn't stay again, because the staff was all very nice and helpful. Maybe it'll be a bit better next time.More</t>
   </si>
   <si>
+    <t>Melissa H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r145823272-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1809,6 +2019,9 @@
     <t>Stayed for a soccer tournament and the breakfast was hot and plentiful.  The times for the breakfast were early enough we were able to to eat before leaving for the games.Quick check in and the bathroom was very big and comfortable.The beds were nice and comfortable temperature.More</t>
   </si>
   <si>
+    <t>Walter L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r145670115-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1833,6 +2046,9 @@
     <t>I got this hotel through Priceline at a very reasonable price.  I originally got it for 2 nights, but liked it so much I extended another 2 nights.  Everything about this place is immaculate.  The rooms were spacious with large flat-panel tv, couch, desk with convenient electric outlets and comfortable bed.  During my stay it was extremely quiet.  It is located off the main road and was able to keep window open without any outside noise.  Very close to any shopping you might want to do, as well as many fine restaurants.  An extremely pleasant stay.  Oh, yes, very fast internet--wifi or cable.  And full tv programming (80 channels) with many HD programs.More</t>
   </si>
   <si>
+    <t>Mark F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r134851337-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1854,6 +2070,9 @@
     <t>Clean hotel with great rates and comfortable beds. The wifi is a little slow for me but did the job. I see a bad review about smokers but didn't notice any or smell smoke. Great hotel to stay at if your staying on business or maybe with your family. More</t>
   </si>
   <si>
+    <t>JakeAComo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r134189077-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1875,6 +2094,9 @@
     <t>Booked a non-smoking room only to show up and be offered a smoking room.  I got the impression that for whatever reason this hotel caters to smokers.  It had a definite smokey odor upon arrival. Lobby furnishings also had a smokey smell.  We left and booked alternate accommodations nearby.More</t>
   </si>
   <si>
+    <t>Michael F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r133774743-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1893,6 +2115,9 @@
     <t>Great staff, great room, Great Breakfast!! Puts Holiday Inn Express in Dalhart to shame.  They should close that hotel down.  It was like a motel 6 compared to this one and so cheaply made.  Owners must only know these words Cheap, Cheap, Cheap!! There is no way it would pass an inspection.  This hotel however, knows what a person needs to feel at home.More</t>
   </si>
   <si>
+    <t>Lstew55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r133001210-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1914,6 +2139,9 @@
     <t>I have stayed here before and found it satisfactory - but I stayed in one room and my co-worker stayed in another - my room was freezing and I could not adjust the thermostat and I couldn't adjust the termperature - my friend's room was a sauna and couldn't be adjusted either so she roasted all night -There were lots of channels on the TV, which is always nice -- but the pillows were icky (LUMPY!) - the towels were icky (small &amp; stiff) - I am a priority club member but I just don't know I will stay at this location ever again.More</t>
   </si>
   <si>
+    <t>Lifesgoodinjboro</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r130946373-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1935,6 +2163,9 @@
     <t>We can always depend on Holiday Inn Express. The accommodationinane always clean and most importantly for us, great AC for a great nights rest since my husband sleeps fridgid 62 degrees. I Just wish there was an extra blanket in the room for me!  A perfect touch was a table with sign "In a Hurry?" in the lobby with a few small bags containing a banana, granola bar and napkins- how impressive!More</t>
   </si>
   <si>
+    <t>Erin F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r120310076-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1953,6 +2184,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>Badrock27</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r118431124-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1968,6 +2202,9 @@
     <t xml:space="preserve">My room was recently renovated and very clean, but no high def TV. Conveniently located within walking distance of restaurants. </t>
   </si>
   <si>
+    <t>bturn205</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r117219185-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1986,6 +2223,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>ldevonne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r111138967-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2007,6 +2247,9 @@
     <t>I got a great deal on this room for 2 nights from Travelocity.  Checked in and was told that I had a room with 1 queen bed -instead of 2 queens or 2 double like I thought-  and since the hotel was full the only other option I had was a Smoking room with a King bed.  So I decided to stick with the nonsmoking-queen room.  After getting our things in, my friend looked inside the bathroom and saw that there was not a tub.  Turns out we were in a room that was wheel chair accessible.  When I called the front desk another lady, Elizabeth, who I am assuming was the manager quickly found us another room and brought us the keys to the new room.  After we settled into the new room, Elizabeth called to make sure the room was to our liking and apologized again for the mistake.The next day, we needed more towels and Elizabeth quickly brought them over to our room.  The service at this hotel was great.Now the breakfast......Disgusting.  The eggs tasted funny, my orange juice was watery orange in color and tasted like water, the biscuit and gravy was not good, there was not any bacon or sausage.  My friend and I were extremely disgusted.  Don't make plans of eating breakfast here!!!More</t>
   </si>
   <si>
+    <t>marcmec</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r108480626-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2022,6 +2265,9 @@
     <t>The rooms are not bad per se. The hotel is average in all senses. On the plus side, it's located close to several restaurants.What makes me never go back there is how careless and unaccommodating the front desk staff is. Including the manager. Just an example: I got there at 1:30pm (not long before check-in time, which is 3pm). They informed me they did have clean rooms available, but they wouldn't let me have one without paying an early check-in fee. Overall, their attitude was one of the worst I've seen. If you do decide to stay there, I hope you don't need anything out of the ordinary.</t>
   </si>
   <si>
+    <t>mariagloria</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r108365754-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2040,6 +2286,9 @@
     <t>We stayed here 2 nights while in town for a wedding. We got a very good deal through Hotwire. The hotel is in a business park, a block from the Belt Line and close to lots of shopping and dining. The rooms were basic, but clean and comfy. The breakfast buffet had a lot of selections and was decent. The hotel staff was very helpful. On our second night, there was an event in one of the conference rooms that had loud music at night. We asked to be moved up to a higher floor because of the noise, and the staff allowed us to do so. We were very satisfied with our stay. This hotel is a very good value.More</t>
   </si>
   <si>
+    <t>Kodie83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r98702855-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2065,6 +2314,9 @@
   </si>
   <si>
     <t>The hotel GM told me I stayed in my room two nights, even though I was at home in my bed with my wife the second night. They refused to refund my Amex, so I called Holiday Inn's Guest Relations department. That was about as much help as the hotel, as they basically said it's up to the hotel. A Hilton product would never make me jump through hoops like that!More</t>
+  </si>
+  <si>
+    <t>michtraveler1969</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r98562740-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
@@ -2102,6 +2354,9 @@
 LIke i said earlier: complete dump:  no.  Can you do much better...While this HIE was by no means a dump it did fail to measure up to the finer HIE properties i've experienced.   It's obvious from the lobby and room layout that this was formerly a Country Inn hotel.  The lobby area was nice with the hardwood floor and tastefully furnished.  I was placed on the first floor which i personally like.   Walking past the conference rooms and down the guestroom hallways i noticed that the walls and lighting were nice.  The carpeting in the hallways was a bit old.  The room was to be honest a bit disappointing.  The TV was a relic from the 1990's and the picture quality horrible.   The mattress was also older and not comfortable at all but was fitted with quality linen.  The bathroom was rather spartan but clean.  The shower had decent water pressure and was quite clean.   Maybe it's just my imagination but to me it seems like the quality of HIE soaps, shampoo and conditioner has diminished over the past couple years.  The high speed internet was free and had decent speed.  Breakfast was also a bit of a disappointment.   No brand cereal, rotten fruit and a pancake machine that had an error message displayed and was just left there during the entire breakfast service.   The orange and apple juices were watered down to the point that they were undrinkable.   LIke i said earlier: complete dump:  no.  Can you do much better in this area:  Absolutely.More</t>
   </si>
   <si>
+    <t>psych0maniac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r54469598-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2123,6 +2378,9 @@
     <t>Cons: Room smelled like smoke. There were signs saying smoking was not permitted but the smell was already in the room. The carpet felt dirty that I did not want to walk barefoot. When we had the heat on, there were 5-minute periods where cold air was coming out. It was hard to predict what the temperature would be in the next 10 minutes. The curtains were not long enough to overlap so we could truly utilize the blackout curtains. Bathroom products were not of any decent quality.Positive: The provide bottle water upon check-in. Close proximity to Restaurant Row makes it convenient to find a good, quality restaurant. Quiet community so there is almost no external noise except planes flying overhead.Breakfast - all carbs on the weekend. Sausage patty on weekdays is the only meat.More</t>
   </si>
   <si>
+    <t>1Big_Tex</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r52169496-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2141,6 +2399,9 @@
     <t>December 2009</t>
   </si>
   <si>
+    <t>SammieAR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r17659730-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2162,6 +2423,9 @@
     <t>When I was doing my research on this hotel, I did not see any recent reviews. I was, therefore, a little leery of what to expect. However, we were not disappointed. The lobby was nice, and our non-smoking room on the 2nd floor was clean and spacious (it is a 4-story building). It has all the basic amenities (hairdryer, fridge, microwave, in-room coffee maker) with clean towels and sheets. Check-in and out were easy and staff were friendly. Small outdoor pool was clean, but crowded most of the time (July 4th weekend). Complimentary continental breakfast was adequate but closes at 9.30 am.Hotel is located on the north end along Midway Road, and about two or three blocks south of the famous Belt Line Rd, where there are many good restaurants for whatever you are in the mood for. It is also near the Galleria Mall and Valley View Center for lots of shopping, or even a movie if you wish.We will stay there again.More</t>
   </si>
   <si>
+    <t>Muffin06</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r6452658-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2180,6 +2444,9 @@
     <t>November 2006</t>
   </si>
   <si>
+    <t>Marc T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r6051816-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2198,6 +2465,9 @@
     <t>October 2006</t>
   </si>
   <si>
+    <t>TNTraverler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r5936813-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2217,6 +2487,9 @@
   </si>
   <si>
     <t>I stayed at the hotel for one night on a business trip.  The hotel itself is nice.  The rooms are quite large and clean.  The hotel staff is not as good.  We had a group of co-workers at the hotel for a business meeting.  The meeting room was fine, but I have never stayed in a hotel where the staff would not help out.  I had to ask for everything.  (sodas, temp control, garbage, etc)  I basically felt like I worked for the hotel.  I had to get sodas ready (ice, bucket), I had to take out the garbage.  I had to ask the manager to clean the breakfast room so our luch could be brought in.  (I had set these things up before arriving at the hotel and thought they would be taken care of.  I was wrong.)  After lunch the breakfast area was not cleaned so other guests arriving only saw a mess in there.  I refused to clean this as my work day at the hotel was over.  I would never book another meeting at this hotel.If you plan on staying at this hotel, do not expect the hotel staff to go out of their way.More</t>
+  </si>
+  <si>
+    <t>AmyBPChef</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d225572-r4129831-Holiday_Inn_Express_Suites_Dallas_Addison-Addison_Texas.html</t>
@@ -2739,43 +3012,47 @@
       <c r="A2" t="n">
         <v>37606</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>155053</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2787,56 +3064,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37606</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>155054</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2848,56 +3129,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37606</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>155055</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -2915,56 +3200,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37606</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>20465</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2976,56 +3265,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37606</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>47367</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3039,50 +3332,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37606</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>155056</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3094,56 +3391,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37606</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>3334</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="O8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3159,56 +3460,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37606</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>155057</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3220,56 +3525,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="X9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37606</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>155058</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="O10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -3287,56 +3596,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="X10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37606</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>155059</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="O11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3350,50 +3663,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37606</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>155060</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="O12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3405,56 +3722,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="X12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="Y12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37606</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>36762</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="O13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3474,50 +3795,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37606</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>155061</v>
+      </c>
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="K14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="O14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3531,47 +3856,51 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="X14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="Y14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37606</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>155062</v>
+      </c>
+      <c r="C15" t="s">
+        <v>169</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="J15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
@@ -3590,50 +3919,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37606</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>125688</v>
+      </c>
+      <c r="C16" t="s">
+        <v>175</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="O16" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3651,56 +3984,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="X16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37606</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>155063</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="J17" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3718,56 +4055,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="X17" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="Y17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37606</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>155064</v>
+      </c>
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="J18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="O18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3781,56 +4122,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="X18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="Y18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37606</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>18297</v>
+      </c>
+      <c r="C19" t="s">
+        <v>199</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="J19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3842,56 +4187,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="X19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="Y19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37606</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>155065</v>
+      </c>
+      <c r="C20" t="s">
+        <v>208</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="O20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -3909,56 +4258,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="X20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="Y20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37606</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>155066</v>
+      </c>
+      <c r="C21" t="s">
+        <v>218</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="J21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="K21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -3976,50 +4329,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37606</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>9516</v>
+      </c>
+      <c r="C22" t="s">
+        <v>225</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="J22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="K22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4037,47 +4394,51 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="X22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="Y22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37606</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>155067</v>
+      </c>
+      <c r="C23" t="s">
+        <v>235</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="J23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="K23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="L23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
@@ -4096,50 +4457,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37606</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>3936</v>
+      </c>
+      <c r="C24" t="s">
+        <v>241</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="J24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="K24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="O24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -4159,50 +4524,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37606</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>35973</v>
+      </c>
+      <c r="C25" t="s">
+        <v>247</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="J25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="K25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="L25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="O25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4218,56 +4587,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="X25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="Y25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37606</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>155068</v>
+      </c>
+      <c r="C26" t="s">
+        <v>256</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="J26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="K26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="L26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="O26" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4281,50 +4654,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37606</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>44075</v>
+      </c>
+      <c r="C27" t="s">
+        <v>262</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="J27" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="K27" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="L27" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="O27" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4340,56 +4717,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="X27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="Y27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37606</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>155069</v>
+      </c>
+      <c r="C28" t="s">
+        <v>272</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="J28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="K28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="L28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="O28" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4401,56 +4782,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="X28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="Y28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37606</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>155070</v>
+      </c>
+      <c r="C29" t="s">
+        <v>282</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="J29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="K29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="L29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="O29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -4466,56 +4851,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="X29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="Y29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37606</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>17741</v>
+      </c>
+      <c r="C30" t="s">
+        <v>291</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="J30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="K30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="L30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="O30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -4535,50 +4924,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37606</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>155071</v>
+      </c>
+      <c r="C31" t="s">
+        <v>297</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="J31" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K31" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="L31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="O31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -4598,50 +4991,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37606</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>155072</v>
+      </c>
+      <c r="C32" t="s">
+        <v>303</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="J32" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="K32" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="L32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="O32" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -4661,50 +5058,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37606</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>155073</v>
+      </c>
+      <c r="C33" t="s">
+        <v>311</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="J33" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="K33" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="L33" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="O33" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4724,50 +5125,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37606</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>155074</v>
+      </c>
+      <c r="C34" t="s">
+        <v>319</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="J34" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="K34" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="L34" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="O34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4787,50 +5192,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37606</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>95883</v>
+      </c>
+      <c r="C35" t="s">
+        <v>325</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="J35" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="K35" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="L35" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="O35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4848,50 +5257,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37606</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>155075</v>
+      </c>
+      <c r="C36" t="s">
+        <v>330</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="J36" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="K36" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="L36" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="O36" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4911,50 +5324,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37606</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>508</v>
+      </c>
+      <c r="C37" t="s">
+        <v>337</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="J37" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="K37" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="L37" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="O37" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4972,50 +5389,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37606</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>22798</v>
+      </c>
+      <c r="C38" t="s">
+        <v>344</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="J38" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="K38" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="L38" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="O38" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -5033,50 +5454,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37606</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>2674</v>
+      </c>
+      <c r="C39" t="s">
+        <v>350</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="J39" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="K39" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="L39" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="O39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5096,50 +5521,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37606</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>9516</v>
+      </c>
+      <c r="C40" t="s">
+        <v>225</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="J40" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="K40" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="L40" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="O40" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5155,13 +5584,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="X40" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="Y40" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41">
@@ -5174,37 +5603,37 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="J41" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="K41" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="L41" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="O41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5218,50 +5647,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37606</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>54092</v>
+      </c>
+      <c r="C42" t="s">
+        <v>370</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="J42" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="K42" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="L42" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="O42" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5281,50 +5714,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37606</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>155076</v>
+      </c>
+      <c r="C43" t="s">
+        <v>377</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="J43" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="K43" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="L43" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="O43" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5340,56 +5777,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="X43" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="Y43" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37606</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>155077</v>
+      </c>
+      <c r="C44" t="s">
+        <v>387</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="J44" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="K44" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="L44" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="O44" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5403,50 +5844,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37606</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>155078</v>
+      </c>
+      <c r="C45" t="s">
+        <v>393</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="J45" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="K45" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="L45" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="O45" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -5466,50 +5911,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37606</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>9306</v>
+      </c>
+      <c r="C46" t="s">
+        <v>400</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="J46" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="K46" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="L46" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="O46" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5529,50 +5978,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37606</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>155079</v>
+      </c>
+      <c r="C47" t="s">
+        <v>407</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="J47" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="K47" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="L47" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="O47" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5590,50 +6043,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37606</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>155080</v>
+      </c>
+      <c r="C48" t="s">
+        <v>414</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="J48" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="K48" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="L48" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="O48" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5647,7 +6104,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49">
@@ -5660,37 +6117,37 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="J49" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="K49" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="L49" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="O49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5704,50 +6161,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>37606</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>155081</v>
+      </c>
+      <c r="C50" t="s">
+        <v>424</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="J50" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="K50" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="L50" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="O50" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5759,56 +6220,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="X50" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="Y50" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>37606</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>155082</v>
+      </c>
+      <c r="C51" t="s">
+        <v>434</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="J51" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="K51" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="L51" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="O51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5822,41 +6287,45 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>37606</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>155083</v>
+      </c>
+      <c r="C52" t="s">
+        <v>440</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="J52" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="K52" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="L52" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
@@ -5885,50 +6354,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>37606</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>155084</v>
+      </c>
+      <c r="C53" t="s">
+        <v>447</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="J53" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="K53" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="L53" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="O53" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5944,56 +6417,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="X53" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="Y53" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>37606</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>31936</v>
+      </c>
+      <c r="C54" t="s">
+        <v>457</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="J54" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="K54" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="L54" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="O54" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6007,41 +6484,45 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>37606</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>155085</v>
+      </c>
+      <c r="C55" t="s">
+        <v>464</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="J55" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="K55" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="L55" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
@@ -6068,56 +6549,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="X55" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="Y55" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>37606</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>155064</v>
+      </c>
+      <c r="C56" t="s">
+        <v>208</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="J56" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="K56" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="L56" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="O56" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6141,50 +6626,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>37606</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>7838</v>
+      </c>
+      <c r="C57" t="s">
+        <v>479</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="J57" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="K57" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="L57" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -6206,56 +6695,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="X57" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="Y57" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>37606</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>30718</v>
+      </c>
+      <c r="C58" t="s">
+        <v>489</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="J58" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="K58" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="L58" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="O58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6277,56 +6770,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="X58" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="Y58" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>37606</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>155086</v>
+      </c>
+      <c r="C59" t="s">
+        <v>499</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="J59" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="K59" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="L59" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="O59" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -6348,56 +6845,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="X59" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="Y59" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>37606</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>155087</v>
+      </c>
+      <c r="C60" t="s">
+        <v>506</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="J60" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="K60" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="L60" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="O60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6419,56 +6920,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="X60" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="Y60" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>37606</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>155088</v>
+      </c>
+      <c r="C61" t="s">
+        <v>516</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
       <c r="J61" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
       <c r="K61" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="L61" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="O61" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6490,56 +6995,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
       <c r="X61" t="s">
-        <v>468</v>
+        <v>524</v>
       </c>
       <c r="Y61" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>37606</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>155089</v>
+      </c>
+      <c r="C62" t="s">
+        <v>526</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="J62" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="K62" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="L62" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="O62" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6561,56 +7070,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="X62" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="Y62" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>37606</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>155090</v>
+      </c>
+      <c r="C63" t="s">
+        <v>535</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
       <c r="J63" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="K63" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
       <c r="L63" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="M63" t="n">
         <v>2</v>
       </c>
       <c r="N63" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
       <c r="O63" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P63" t="n">
         <v>2</v>
@@ -6632,47 +7145,51 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
       <c r="X63" t="s">
-        <v>485</v>
+        <v>543</v>
       </c>
       <c r="Y63" t="s">
-        <v>486</v>
+        <v>544</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>37606</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>155091</v>
+      </c>
+      <c r="C64" t="s">
+        <v>545</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>488</v>
+        <v>547</v>
       </c>
       <c r="J64" t="s">
-        <v>489</v>
+        <v>548</v>
       </c>
       <c r="K64" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
       <c r="L64" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
@@ -6699,56 +7216,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="X64" t="s">
-        <v>493</v>
+        <v>552</v>
       </c>
       <c r="Y64" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>37606</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>155092</v>
+      </c>
+      <c r="C65" t="s">
+        <v>554</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="J65" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
       <c r="K65" t="s">
-        <v>498</v>
+        <v>558</v>
       </c>
       <c r="L65" t="s">
-        <v>499</v>
+        <v>559</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="O65" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6770,56 +7291,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
       <c r="X65" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
       <c r="Y65" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>37606</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>35385</v>
+      </c>
+      <c r="C66" t="s">
+        <v>564</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>504</v>
+        <v>565</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>505</v>
+        <v>566</v>
       </c>
       <c r="J66" t="s">
-        <v>506</v>
+        <v>567</v>
       </c>
       <c r="K66" t="s">
-        <v>507</v>
+        <v>568</v>
       </c>
       <c r="L66" t="s">
-        <v>508</v>
+        <v>569</v>
       </c>
       <c r="M66" t="n">
         <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="O66" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -6841,47 +7366,51 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>509</v>
+        <v>570</v>
       </c>
       <c r="X66" t="s">
-        <v>510</v>
+        <v>571</v>
       </c>
       <c r="Y66" t="s">
-        <v>511</v>
+        <v>572</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>37606</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>155093</v>
+      </c>
+      <c r="C67" t="s">
+        <v>573</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>512</v>
+        <v>574</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>513</v>
+        <v>575</v>
       </c>
       <c r="J67" t="s">
-        <v>514</v>
+        <v>576</v>
       </c>
       <c r="K67" t="s">
-        <v>515</v>
+        <v>577</v>
       </c>
       <c r="L67" t="s">
-        <v>516</v>
+        <v>578</v>
       </c>
       <c r="M67" t="n">
         <v>2</v>
@@ -6908,47 +7437,51 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>517</v>
+        <v>579</v>
       </c>
       <c r="X67" t="s">
-        <v>518</v>
+        <v>580</v>
       </c>
       <c r="Y67" t="s">
-        <v>519</v>
+        <v>581</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>37606</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>155094</v>
+      </c>
+      <c r="C68" t="s">
+        <v>582</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>520</v>
+        <v>583</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>521</v>
+        <v>584</v>
       </c>
       <c r="J68" t="s">
-        <v>522</v>
+        <v>585</v>
       </c>
       <c r="K68" t="s">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="L68" t="s">
-        <v>524</v>
+        <v>587</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
@@ -6975,47 +7508,51 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>517</v>
+        <v>579</v>
       </c>
       <c r="X68" t="s">
-        <v>518</v>
+        <v>580</v>
       </c>
       <c r="Y68" t="s">
-        <v>525</v>
+        <v>588</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>37606</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>155095</v>
+      </c>
+      <c r="C69" t="s">
+        <v>589</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>526</v>
+        <v>590</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>527</v>
+        <v>591</v>
       </c>
       <c r="J69" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
       <c r="K69" t="s">
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="L69" t="s">
-        <v>530</v>
+        <v>594</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
@@ -7042,56 +7579,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>531</v>
+        <v>595</v>
       </c>
       <c r="X69" t="s">
-        <v>532</v>
+        <v>596</v>
       </c>
       <c r="Y69" t="s">
-        <v>533</v>
+        <v>597</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>37606</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>155096</v>
+      </c>
+      <c r="C70" t="s">
+        <v>598</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>534</v>
+        <v>599</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>535</v>
+        <v>600</v>
       </c>
       <c r="J70" t="s">
-        <v>536</v>
+        <v>601</v>
       </c>
       <c r="K70" t="s">
-        <v>537</v>
+        <v>602</v>
       </c>
       <c r="L70" t="s">
-        <v>538</v>
+        <v>603</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>539</v>
+        <v>604</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7113,56 +7654,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>531</v>
+        <v>595</v>
       </c>
       <c r="X70" t="s">
-        <v>532</v>
+        <v>596</v>
       </c>
       <c r="Y70" t="s">
-        <v>540</v>
+        <v>605</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>37606</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>6878</v>
+      </c>
+      <c r="C71" t="s">
+        <v>606</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>541</v>
+        <v>607</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>542</v>
+        <v>608</v>
       </c>
       <c r="J71" t="s">
-        <v>543</v>
+        <v>609</v>
       </c>
       <c r="K71" t="s">
-        <v>544</v>
+        <v>610</v>
       </c>
       <c r="L71" t="s">
-        <v>545</v>
+        <v>611</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>546</v>
+        <v>612</v>
       </c>
       <c r="O71" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7182,56 +7727,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>531</v>
+        <v>595</v>
       </c>
       <c r="X71" t="s">
-        <v>532</v>
+        <v>596</v>
       </c>
       <c r="Y71" t="s">
-        <v>547</v>
+        <v>613</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>37606</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>21461</v>
+      </c>
+      <c r="C72" t="s">
+        <v>614</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>548</v>
+        <v>615</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
       <c r="J72" t="s">
-        <v>550</v>
+        <v>617</v>
       </c>
       <c r="K72" t="s">
-        <v>551</v>
+        <v>618</v>
       </c>
       <c r="L72" t="s">
-        <v>552</v>
+        <v>619</v>
       </c>
       <c r="M72" t="n">
         <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
       <c r="O72" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7243,56 +7792,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>554</v>
+        <v>621</v>
       </c>
       <c r="X72" t="s">
-        <v>555</v>
+        <v>622</v>
       </c>
       <c r="Y72" t="s">
-        <v>556</v>
+        <v>623</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>37606</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>155097</v>
+      </c>
+      <c r="C73" t="s">
+        <v>624</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>557</v>
+        <v>625</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>558</v>
+        <v>626</v>
       </c>
       <c r="J73" t="s">
-        <v>559</v>
+        <v>627</v>
       </c>
       <c r="K73" t="s">
-        <v>560</v>
+        <v>628</v>
       </c>
       <c r="L73" t="s">
-        <v>561</v>
+        <v>629</v>
       </c>
       <c r="M73" t="n">
         <v>2</v>
       </c>
       <c r="N73" t="s">
-        <v>546</v>
+        <v>612</v>
       </c>
       <c r="O73" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P73" t="n">
         <v>2</v>
@@ -7312,56 +7865,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>562</v>
+        <v>630</v>
       </c>
       <c r="X73" t="s">
-        <v>563</v>
+        <v>631</v>
       </c>
       <c r="Y73" t="s">
-        <v>564</v>
+        <v>632</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>37606</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>155098</v>
+      </c>
+      <c r="C74" t="s">
+        <v>633</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>565</v>
+        <v>634</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>566</v>
+        <v>635</v>
       </c>
       <c r="J74" t="s">
-        <v>567</v>
+        <v>636</v>
       </c>
       <c r="K74" t="s">
-        <v>568</v>
+        <v>637</v>
       </c>
       <c r="L74" t="s">
-        <v>569</v>
+        <v>638</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>546</v>
+        <v>612</v>
       </c>
       <c r="O74" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -7383,56 +7940,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
       <c r="X74" t="s">
-        <v>571</v>
+        <v>640</v>
       </c>
       <c r="Y74" t="s">
-        <v>572</v>
+        <v>641</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>37606</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>2034</v>
+      </c>
+      <c r="C75" t="s">
+        <v>642</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>573</v>
+        <v>643</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>574</v>
+        <v>644</v>
       </c>
       <c r="J75" t="s">
-        <v>575</v>
+        <v>645</v>
       </c>
       <c r="K75" t="s">
-        <v>576</v>
+        <v>646</v>
       </c>
       <c r="L75" t="s">
-        <v>577</v>
+        <v>647</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>578</v>
+        <v>648</v>
       </c>
       <c r="O75" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7454,56 +8015,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>579</v>
+        <v>649</v>
       </c>
       <c r="X75" t="s">
-        <v>571</v>
+        <v>640</v>
       </c>
       <c r="Y75" t="s">
-        <v>580</v>
+        <v>650</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>37606</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>155099</v>
+      </c>
+      <c r="C76" t="s">
+        <v>651</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>581</v>
+        <v>652</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>582</v>
+        <v>653</v>
       </c>
       <c r="J76" t="s">
-        <v>583</v>
+        <v>654</v>
       </c>
       <c r="K76" t="s">
-        <v>584</v>
+        <v>655</v>
       </c>
       <c r="L76" t="s">
-        <v>585</v>
+        <v>656</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>578</v>
+        <v>648</v>
       </c>
       <c r="O76" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7525,47 +8090,51 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>586</v>
+        <v>657</v>
       </c>
       <c r="X76" t="s">
-        <v>587</v>
+        <v>658</v>
       </c>
       <c r="Y76" t="s">
-        <v>588</v>
+        <v>659</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>37606</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>1551</v>
+      </c>
+      <c r="C77" t="s">
+        <v>660</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>589</v>
+        <v>661</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>590</v>
+        <v>662</v>
       </c>
       <c r="J77" t="s">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="K77" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="L77" t="s">
-        <v>592</v>
+        <v>664</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
@@ -7592,56 +8161,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>593</v>
+        <v>665</v>
       </c>
       <c r="X77" t="s">
-        <v>594</v>
+        <v>666</v>
       </c>
       <c r="Y77" t="s">
-        <v>595</v>
+        <v>667</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>37606</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>155100</v>
+      </c>
+      <c r="C78" t="s">
+        <v>668</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>596</v>
+        <v>669</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>597</v>
+        <v>670</v>
       </c>
       <c r="J78" t="s">
-        <v>598</v>
+        <v>671</v>
       </c>
       <c r="K78" t="s">
-        <v>599</v>
+        <v>672</v>
       </c>
       <c r="L78" t="s">
-        <v>600</v>
+        <v>673</v>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>601</v>
+        <v>674</v>
       </c>
       <c r="O78" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
@@ -7653,56 +8226,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>593</v>
+        <v>665</v>
       </c>
       <c r="X78" t="s">
-        <v>594</v>
+        <v>666</v>
       </c>
       <c r="Y78" t="s">
-        <v>602</v>
+        <v>675</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>37606</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C79" t="s">
+        <v>676</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>603</v>
+        <v>677</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>604</v>
+        <v>678</v>
       </c>
       <c r="J79" t="s">
-        <v>605</v>
+        <v>679</v>
       </c>
       <c r="K79" t="s">
-        <v>606</v>
+        <v>680</v>
       </c>
       <c r="L79" t="s">
-        <v>607</v>
+        <v>681</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>601</v>
+        <v>674</v>
       </c>
       <c r="O79" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7724,56 +8301,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>593</v>
+        <v>665</v>
       </c>
       <c r="X79" t="s">
-        <v>594</v>
+        <v>666</v>
       </c>
       <c r="Y79" t="s">
-        <v>608</v>
+        <v>682</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>37606</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>154976</v>
+      </c>
+      <c r="C80" t="s">
+        <v>683</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>609</v>
+        <v>684</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>610</v>
+        <v>685</v>
       </c>
       <c r="J80" t="s">
-        <v>611</v>
+        <v>686</v>
       </c>
       <c r="K80" t="s">
-        <v>612</v>
+        <v>687</v>
       </c>
       <c r="L80" t="s">
-        <v>613</v>
+        <v>688</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>614</v>
+        <v>689</v>
       </c>
       <c r="O80" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -7795,56 +8376,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>593</v>
+        <v>665</v>
       </c>
       <c r="X80" t="s">
-        <v>594</v>
+        <v>666</v>
       </c>
       <c r="Y80" t="s">
-        <v>615</v>
+        <v>690</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>37606</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>155101</v>
+      </c>
+      <c r="C81" t="s">
+        <v>691</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>616</v>
+        <v>692</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>617</v>
+        <v>693</v>
       </c>
       <c r="J81" t="s">
-        <v>618</v>
+        <v>694</v>
       </c>
       <c r="K81" t="s">
-        <v>619</v>
+        <v>695</v>
       </c>
       <c r="L81" t="s">
-        <v>620</v>
+        <v>696</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>621</v>
+        <v>697</v>
       </c>
       <c r="O81" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -7866,56 +8451,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>593</v>
+        <v>665</v>
       </c>
       <c r="X81" t="s">
-        <v>594</v>
+        <v>666</v>
       </c>
       <c r="Y81" t="s">
-        <v>622</v>
+        <v>698</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>37606</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>3053</v>
+      </c>
+      <c r="C82" t="s">
+        <v>699</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>623</v>
+        <v>700</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>624</v>
+        <v>701</v>
       </c>
       <c r="J82" t="s">
-        <v>625</v>
+        <v>702</v>
       </c>
       <c r="K82" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="L82" t="s">
-        <v>627</v>
+        <v>704</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>628</v>
+        <v>705</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7939,41 +8528,45 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>627</v>
+        <v>704</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>37606</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>155102</v>
+      </c>
+      <c r="C83" t="s">
+        <v>706</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>629</v>
+        <v>707</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>630</v>
+        <v>708</v>
       </c>
       <c r="J83" t="s">
-        <v>631</v>
+        <v>709</v>
       </c>
       <c r="K83" t="s">
-        <v>632</v>
+        <v>710</v>
       </c>
       <c r="L83" t="s">
-        <v>633</v>
+        <v>711</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
@@ -8002,50 +8595,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>633</v>
+        <v>711</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>37606</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>155103</v>
+      </c>
+      <c r="C84" t="s">
+        <v>712</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>634</v>
+        <v>713</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>635</v>
+        <v>714</v>
       </c>
       <c r="J84" t="s">
-        <v>636</v>
+        <v>715</v>
       </c>
       <c r="K84" t="s">
-        <v>637</v>
+        <v>716</v>
       </c>
       <c r="L84" t="s">
-        <v>638</v>
+        <v>717</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>639</v>
+        <v>718</v>
       </c>
       <c r="O84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8065,50 +8662,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>638</v>
+        <v>717</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>37606</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>155104</v>
+      </c>
+      <c r="C85" t="s">
+        <v>719</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>641</v>
+        <v>721</v>
       </c>
       <c r="J85" t="s">
-        <v>642</v>
+        <v>722</v>
       </c>
       <c r="K85" t="s">
-        <v>643</v>
+        <v>723</v>
       </c>
       <c r="L85" t="s">
-        <v>644</v>
+        <v>724</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>645</v>
+        <v>725</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -8128,50 +8729,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>646</v>
+        <v>726</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>37606</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>155105</v>
+      </c>
+      <c r="C86" t="s">
+        <v>727</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>647</v>
+        <v>728</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>648</v>
+        <v>729</v>
       </c>
       <c r="J86" t="s">
-        <v>649</v>
+        <v>730</v>
       </c>
       <c r="K86" t="s">
-        <v>650</v>
+        <v>731</v>
       </c>
       <c r="L86" t="s">
-        <v>651</v>
+        <v>732</v>
       </c>
       <c r="M86" t="n">
         <v>2</v>
       </c>
       <c r="N86" t="s">
-        <v>645</v>
+        <v>725</v>
       </c>
       <c r="O86" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P86" t="n">
         <v>2</v>
@@ -8195,50 +8800,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>651</v>
+        <v>732</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>37606</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>155106</v>
+      </c>
+      <c r="C87" t="s">
+        <v>733</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>652</v>
+        <v>734</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>653</v>
+        <v>735</v>
       </c>
       <c r="J87" t="s">
-        <v>654</v>
+        <v>736</v>
       </c>
       <c r="K87" t="s">
-        <v>655</v>
+        <v>737</v>
       </c>
       <c r="L87" t="s">
-        <v>656</v>
+        <v>738</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>645</v>
+        <v>725</v>
       </c>
       <c r="O87" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8262,50 +8871,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>657</v>
+        <v>739</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>37606</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>155107</v>
+      </c>
+      <c r="C88" t="s">
+        <v>740</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>658</v>
+        <v>741</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>659</v>
+        <v>742</v>
       </c>
       <c r="J88" t="s">
-        <v>660</v>
+        <v>743</v>
       </c>
       <c r="K88" t="s">
-        <v>661</v>
+        <v>744</v>
       </c>
       <c r="L88" t="s">
-        <v>662</v>
+        <v>745</v>
       </c>
       <c r="M88" t="n">
         <v>2</v>
       </c>
       <c r="N88" t="s">
-        <v>663</v>
+        <v>746</v>
       </c>
       <c r="O88" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P88" t="n">
         <v>3</v>
@@ -8327,56 +8940,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>664</v>
+        <v>747</v>
       </c>
       <c r="X88" t="s">
-        <v>665</v>
+        <v>748</v>
       </c>
       <c r="Y88" t="s">
-        <v>666</v>
+        <v>749</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>37606</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>155108</v>
+      </c>
+      <c r="C89" t="s">
+        <v>750</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>667</v>
+        <v>751</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>668</v>
+        <v>752</v>
       </c>
       <c r="J89" t="s">
-        <v>669</v>
+        <v>753</v>
       </c>
       <c r="K89" t="s">
-        <v>670</v>
+        <v>754</v>
       </c>
       <c r="L89" t="s">
-        <v>671</v>
+        <v>755</v>
       </c>
       <c r="M89" t="n">
         <v>3</v>
       </c>
       <c r="N89" t="s">
-        <v>672</v>
+        <v>756</v>
       </c>
       <c r="O89" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P89" t="n">
         <v>3</v>
@@ -8398,56 +9015,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>664</v>
+        <v>747</v>
       </c>
       <c r="X89" t="s">
-        <v>665</v>
+        <v>748</v>
       </c>
       <c r="Y89" t="s">
-        <v>673</v>
+        <v>757</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>37606</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>155109</v>
+      </c>
+      <c r="C90" t="s">
+        <v>758</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>674</v>
+        <v>759</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>675</v>
+        <v>760</v>
       </c>
       <c r="J90" t="s">
-        <v>676</v>
+        <v>761</v>
       </c>
       <c r="K90" t="s">
-        <v>677</v>
+        <v>762</v>
       </c>
       <c r="L90" t="s">
-        <v>678</v>
+        <v>763</v>
       </c>
       <c r="M90" t="n">
         <v>2</v>
       </c>
       <c r="N90" t="s">
-        <v>679</v>
+        <v>764</v>
       </c>
       <c r="O90" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P90" t="n">
         <v>2</v>
@@ -8469,56 +9090,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>664</v>
+        <v>747</v>
       </c>
       <c r="X90" t="s">
-        <v>665</v>
+        <v>748</v>
       </c>
       <c r="Y90" t="s">
-        <v>680</v>
+        <v>765</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>37606</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>155110</v>
+      </c>
+      <c r="C91" t="s">
+        <v>766</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>681</v>
+        <v>767</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>682</v>
+        <v>768</v>
       </c>
       <c r="J91" t="s">
-        <v>683</v>
+        <v>769</v>
       </c>
       <c r="K91" t="s">
-        <v>684</v>
+        <v>770</v>
       </c>
       <c r="L91" t="s">
-        <v>685</v>
+        <v>771</v>
       </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
       <c r="N91" t="s">
-        <v>686</v>
+        <v>772</v>
       </c>
       <c r="O91" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P91" t="n">
         <v>2</v>
@@ -8540,50 +9165,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>685</v>
+        <v>771</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>37606</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>155111</v>
+      </c>
+      <c r="C92" t="s">
+        <v>773</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>687</v>
+        <v>774</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>688</v>
+        <v>775</v>
       </c>
       <c r="J92" t="s">
-        <v>689</v>
+        <v>776</v>
       </c>
       <c r="K92" t="s">
-        <v>690</v>
+        <v>777</v>
       </c>
       <c r="L92" t="s">
-        <v>691</v>
+        <v>778</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>692</v>
+        <v>779</v>
       </c>
       <c r="O92" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8607,50 +9236,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>693</v>
+        <v>780</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>37606</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>155112</v>
+      </c>
+      <c r="C93" t="s">
+        <v>781</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>694</v>
+        <v>782</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>695</v>
+        <v>783</v>
       </c>
       <c r="J93" t="s">
-        <v>696</v>
+        <v>784</v>
       </c>
       <c r="K93" t="s">
-        <v>697</v>
+        <v>785</v>
       </c>
       <c r="L93" t="s">
-        <v>698</v>
+        <v>786</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>699</v>
+        <v>787</v>
       </c>
       <c r="O93" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -8674,50 +9307,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>698</v>
+        <v>786</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>37606</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>28677</v>
+      </c>
+      <c r="C94" t="s">
+        <v>788</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>700</v>
+        <v>789</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>701</v>
+        <v>790</v>
       </c>
       <c r="J94" t="s">
-        <v>702</v>
+        <v>791</v>
       </c>
       <c r="K94" t="s">
-        <v>703</v>
+        <v>792</v>
       </c>
       <c r="L94" t="s">
-        <v>704</v>
+        <v>793</v>
       </c>
       <c r="M94" t="n">
         <v>3</v>
       </c>
       <c r="N94" t="s">
-        <v>705</v>
+        <v>794</v>
       </c>
       <c r="O94" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -8739,50 +9376,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>704</v>
+        <v>793</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>37606</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>155113</v>
+      </c>
+      <c r="C95" t="s">
+        <v>795</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>706</v>
+        <v>796</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>707</v>
+        <v>797</v>
       </c>
       <c r="J95" t="s">
-        <v>708</v>
+        <v>798</v>
       </c>
       <c r="K95" t="s">
-        <v>709</v>
+        <v>799</v>
       </c>
       <c r="L95" t="s">
-        <v>710</v>
+        <v>800</v>
       </c>
       <c r="M95" t="n">
         <v>2</v>
       </c>
       <c r="N95" t="s">
-        <v>711</v>
+        <v>801</v>
       </c>
       <c r="O95" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P95" t="s"/>
       <c r="Q95" t="n">
@@ -8804,50 +9445,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>712</v>
+        <v>802</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>37606</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>155114</v>
+      </c>
+      <c r="C96" t="s">
+        <v>803</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>713</v>
+        <v>804</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>714</v>
+        <v>805</v>
       </c>
       <c r="J96" t="s">
-        <v>715</v>
+        <v>806</v>
       </c>
       <c r="K96" t="s">
-        <v>716</v>
+        <v>807</v>
       </c>
       <c r="L96" t="s">
-        <v>717</v>
+        <v>808</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>718</v>
+        <v>809</v>
       </c>
       <c r="O96" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -8869,7 +9514,7 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>717</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>
